--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3657052.865134947</v>
+        <v>3654509.055627862</v>
       </c>
     </row>
     <row r="7">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>72.63544656439292</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>136.6253230859</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>22.25920201235224</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>111.2416826913616</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>79.63579206135186</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>190.3570193945487</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032233</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>12.84496163790535</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>72.36698404190659</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.3170492634404</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>38.08911925464449</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527771</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>189.993865334467</v>
+        <v>220.4747617066646</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>306.1404959446014</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5491597882495</v>
+        <v>101.4926604386248</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465039</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614511</v>
+        <v>92.83909691614507</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115256</v>
+        <v>18.47335059662092</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256316</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>119.6981910140047</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>182.2982904715967</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701339</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1576,10 +1576,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>111.321323070213</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>29.24923305751745</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2090,13 +2090,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444129</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>9.146142788179411</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>367.7894056603332</v>
+        <v>294.4202677165022</v>
       </c>
       <c r="C2" t="n">
-        <v>367.7894056603332</v>
+        <v>294.4202677165022</v>
       </c>
       <c r="D2" t="n">
-        <v>101.4117490931552</v>
+        <v>294.4202677165022</v>
       </c>
       <c r="E2" t="n">
-        <v>101.4117490931552</v>
+        <v>294.4202677165022</v>
       </c>
       <c r="F2" t="n">
-        <v>94.46624834395173</v>
+        <v>287.4747669672987</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515908</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358421</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601764</v>
       </c>
       <c r="Q2" t="n">
         <v>1054.855520006025</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946892</v>
+        <v>900.5447187946899</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946892</v>
+        <v>686.1106626298179</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946892</v>
+        <v>432.4256445709466</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946892</v>
+        <v>294.4202677165022</v>
       </c>
       <c r="W2" t="n">
-        <v>900.5447187946892</v>
+        <v>294.4202677165022</v>
       </c>
       <c r="X2" t="n">
-        <v>634.1670622275112</v>
+        <v>294.4202677165022</v>
       </c>
       <c r="Y2" t="n">
-        <v>367.7894056603332</v>
+        <v>294.4202677165022</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.0874629353336</v>
+        <v>218.034182117967</v>
       </c>
       <c r="C3" t="n">
-        <v>373.6344336542066</v>
+        <v>43.58115283683995</v>
       </c>
       <c r="D3" t="n">
-        <v>224.7000239929554</v>
+        <v>43.58115283683995</v>
       </c>
       <c r="E3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>121.6535314649676</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>268.3979551252643</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267556</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293607</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560905</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212816</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166553</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166553</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166553</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166553</v>
       </c>
       <c r="W3" t="n">
-        <v>924.1543001609346</v>
+        <v>633.6459810884537</v>
       </c>
       <c r="X3" t="n">
-        <v>716.3027999554017</v>
+        <v>425.7944808829209</v>
       </c>
       <c r="Y3" t="n">
-        <v>716.3027999554017</v>
+        <v>218.034182117967</v>
       </c>
     </row>
     <row r="4">
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>634.5861515377562</v>
+        <v>101.537304401486</v>
       </c>
       <c r="C4" t="n">
-        <v>634.5861515377562</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="D4" t="n">
-        <v>484.4695121254205</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="E4" t="n">
-        <v>336.5564185430274</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="F4" t="n">
-        <v>189.666471045117</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075549</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816804</v>
       </c>
       <c r="Q4" t="n">
         <v>1054.855520006025</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165368</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>622.5994491745511</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>622.5994491745511</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>367.9149609686642</v>
       </c>
       <c r="W4" t="n">
-        <v>862.5757024357736</v>
+        <v>101.537304401486</v>
       </c>
       <c r="X4" t="n">
-        <v>634.5861515377562</v>
+        <v>101.537304401486</v>
       </c>
       <c r="Y4" t="n">
-        <v>634.5861515377562</v>
+        <v>101.537304401486</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.3840804899463</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
         <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356494</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
         <v>21.09711040012049</v>
@@ -4565,19 +4565,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.2826908791767</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4586,31 +4586,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006024</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411523</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>586.7364457822812</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V5" t="n">
-        <v>586.7364457822812</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="W5" t="n">
-        <v>573.7617370571243</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="X5" t="n">
         <v>573.7617370571243</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.3840804899463</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="C6" t="n">
-        <v>21.09711040012049</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="E6" t="n">
         <v>21.09711040012049</v>
@@ -4647,49 +4647,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699346</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267548</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
         <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560895</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212814</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212814</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212814</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212814</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="V6" t="n">
-        <v>801.3675279810718</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="W6" t="n">
-        <v>547.1301712528702</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="X6" t="n">
-        <v>339.2786710473374</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.5183722823835</v>
+        <v>227.7863052531628</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>634.9529738206666</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>466.0167908927597</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>315.900151480424</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
         <v>21.09711040012049</v>
@@ -4726,49 +4726,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227042</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075538</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006024</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006024</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006024</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006024</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006024</v>
+        <v>464.591469045332</v>
       </c>
       <c r="W7" t="n">
-        <v>862.9425247186839</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X7" t="n">
-        <v>634.9529738206666</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>634.9529738206666</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1410.357830041758</v>
+        <v>981.8557524576192</v>
       </c>
       <c r="C8" t="n">
-        <v>1041.395313101346</v>
+        <v>612.8932355172076</v>
       </c>
       <c r="D8" t="n">
-        <v>683.1296144945957</v>
+        <v>612.8932355172076</v>
       </c>
       <c r="E8" t="n">
-        <v>373.8967903081297</v>
+        <v>227.1049829189633</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9512895589262</v>
+        <v>220.1594821697599</v>
       </c>
       <c r="G8" t="n">
-        <v>355.2854715909974</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685542</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685542</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467157</v>
+        <v>187.3702251467166</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607395</v>
+        <v>442.1757437607416</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045886</v>
+        <v>795.1862829045926</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995221</v>
+        <v>1219.647962995226</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209577</v>
+        <v>1655.591685209584</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940586</v>
+        <v>2053.905718940595</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550187</v>
+        <v>2359.356530550197</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661152</v>
+        <v>2540.564622661163</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342771</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342771</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342771</v>
+        <v>2351.810676439055</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342771</v>
+        <v>2098.229497964625</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342771</v>
+        <v>2098.229497964625</v>
       </c>
       <c r="W8" t="n">
-        <v>2560.562760342771</v>
+        <v>1745.460842694511</v>
       </c>
       <c r="X8" t="n">
-        <v>2187.097002081691</v>
+        <v>1371.995084433431</v>
       </c>
       <c r="Y8" t="n">
-        <v>1796.95767010588</v>
+        <v>981.8557524576192</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010768</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199498</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818586986</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532431</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801281</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763162</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993882</v>
+        <v>69.87120530445253</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685542</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J9" t="n">
-        <v>113.488757963718</v>
+        <v>113.4887579637187</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148163</v>
+        <v>298.0857543148178</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377482965</v>
+        <v>931.8250374996563</v>
       </c>
       <c r="M9" t="n">
-        <v>1208.393778287022</v>
+        <v>1294.891505973957</v>
       </c>
       <c r="N9" t="n">
-        <v>1842.133061471858</v>
+        <v>1842.133061471866</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.019871459246</v>
+        <v>2174.019871459255</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.05522988887</v>
+        <v>2421.05522988888</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442614</v>
+        <v>2536.272628442625</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342771</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2424.826280251697</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.816477685346</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751576</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1767.574213519833</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791632</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586099</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821145</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.1185188573652</v>
+        <v>388.1345629950719</v>
       </c>
       <c r="C10" t="n">
-        <v>51.21125520685542</v>
+        <v>219.1983800671649</v>
       </c>
       <c r="D10" t="n">
-        <v>51.21125520685542</v>
+        <v>219.1983800671649</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685542</v>
+        <v>219.1983800671649</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685542</v>
+        <v>219.1983800671649</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685542</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685542</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685542</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380091</v>
+        <v>76.63468308380142</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676557</v>
+        <v>248.2500215676566</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368902</v>
+        <v>523.3850043368917</v>
       </c>
       <c r="M10" t="n">
-        <v>823.865389990401</v>
+        <v>823.8653899904032</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101609</v>
+        <v>1122.635640101612</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931087</v>
+        <v>1382.58202793109</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616495</v>
+        <v>1581.490387616499</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477358</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477358</v>
+        <v>1533.156055412619</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477358</v>
+        <v>1349.016368067572</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477358</v>
+        <v>1126.035066541977</v>
       </c>
       <c r="U10" t="n">
-        <v>1346.650771972</v>
+        <v>836.9166930366193</v>
       </c>
       <c r="V10" t="n">
-        <v>1091.966283766113</v>
+        <v>836.9166930366193</v>
       </c>
       <c r="W10" t="n">
-        <v>802.5491137291524</v>
+        <v>836.9166930366193</v>
       </c>
       <c r="X10" t="n">
-        <v>574.5595628311351</v>
+        <v>608.927142138602</v>
       </c>
       <c r="Y10" t="n">
-        <v>353.7669836876049</v>
+        <v>388.1345629950719</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5072,7 +5072,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832229</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2267.47159895366</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,13 +5264,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5279,46 +5279,46 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5495,55 +5495,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,16 +6257,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6464,19 +6464,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362677</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,37 +6950,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7157,37 +7157,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7406,7 +7406,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,19 +7418,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,19 +7546,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797186</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7734,19 +7734,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>26.13373767211405</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915904</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8149,7 +8149,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>163.041666365883</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418308</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127275</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8535,13 +8535,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.6295957084418</v>
       </c>
       <c r="M9" t="n">
-        <v>255.2581536004303</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.1463441538061</v>
+        <v>161.7749020457976</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>69.70496293143164</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>117.1847295890517</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.11969353038612</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194223</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>676090.9998051757</v>
+        <v>676090.9998051758</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>655476.3831922021</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>655476.383192202</v>
+        <v>655476.3831922021</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>655476.3831922021</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>655476.383192202</v>
+        <v>655476.3831922021</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710694</v>
+      </c>
+      <c r="C2" t="n">
         <v>779989.6813710693</v>
       </c>
-      <c r="C2" t="n">
-        <v>779989.6813710696</v>
-      </c>
       <c r="D2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="H2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055055</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="N2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580761</v>
+        <v>390680.0076580785</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606962</v>
+        <v>507909.2320606936</v>
       </c>
       <c r="F3" t="n">
         <v>1.797263848857256e-10</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911411</v>
+        <v>68999.15441911419</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.2377910169</v>
+        <v>95270.23779101757</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954697</v>
+        <v>132717.9756954691</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>7.726958053873505e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>250332.6659748621</v>
       </c>
       <c r="C4" t="n">
-        <v>250332.6659748622</v>
+        <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.6527555033</v>
+        <v>139261.6527555025</v>
       </c>
       <c r="E4" t="n">
+        <v>10557.08828678129</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10557.08828678125</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10557.0882867812</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10557.08828678124</v>
+      </c>
+      <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="G4" t="n">
-        <v>10557.08828678123</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10557.08828678116</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10557.08828678122</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10557.08828678117</v>
-      </c>
       <c r="K4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="O4" t="n">
         <v>10557.08828678125</v>
       </c>
-      <c r="L4" t="n">
-        <v>10557.08828678123</v>
-      </c>
-      <c r="M4" t="n">
-        <v>10557.08828678125</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10557.08828678123</v>
-      </c>
-      <c r="O4" t="n">
-        <v>10557.08828678126</v>
-      </c>
       <c r="P4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567873</v>
+        <v>92902.86757567895</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-213478.7683992522</v>
+        <v>-213478.7683992521</v>
       </c>
       <c r="C6" t="n">
-        <v>466609.2121919416</v>
+        <v>466609.2121919409</v>
       </c>
       <c r="D6" t="n">
-        <v>157145.1533818111</v>
+        <v>157145.1533818087</v>
       </c>
       <c r="E6" t="n">
-        <v>147200.4195341215</v>
+        <v>147165.6816086881</v>
       </c>
       <c r="F6" t="n">
-        <v>655109.6515948174</v>
+        <v>655074.9136693815</v>
       </c>
       <c r="G6" t="n">
-        <v>655109.651594818</v>
+        <v>655074.9136693818</v>
       </c>
       <c r="H6" t="n">
-        <v>655109.6515948176</v>
+        <v>655074.9136693822</v>
       </c>
       <c r="I6" t="n">
-        <v>655109.6515948176</v>
+        <v>655074.9136693819</v>
       </c>
       <c r="J6" t="n">
-        <v>586110.4971757035</v>
+        <v>586075.7592502673</v>
       </c>
       <c r="K6" t="n">
-        <v>655109.6515948176</v>
+        <v>655074.9136693818</v>
       </c>
       <c r="L6" t="n">
-        <v>559839.4138038005</v>
+        <v>559804.6758783647</v>
       </c>
       <c r="M6" t="n">
-        <v>522391.6758993479</v>
+        <v>522356.9379739126</v>
       </c>
       <c r="N6" t="n">
-        <v>655109.6515948174</v>
+        <v>655074.9136693819</v>
       </c>
       <c r="O6" t="n">
-        <v>655109.6515948179</v>
+        <v>655074.9136693816</v>
       </c>
       <c r="P6" t="n">
-        <v>655109.6515948178</v>
+        <v>655074.913669382</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>3.218023548783847e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.218023548783846e-14</v>
-      </c>
-      <c r="M2" t="n">
-        <v>9.649450368463837e-14</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9.649450368463837e-14</v>
-      </c>
-      <c r="O2" t="n">
-        <v>4.828191222438982e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,10 +26738,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627803</v>
+        <v>933.7024595627826</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856928</v>
+        <v>640.1406900856955</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.414529742695135e-14</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.658697567341881e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933023</v>
+        <v>319.6474457933042</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788935</v>
+        <v>434.2730407788912</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841867</v>
+        <v>376.4268100841894</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139556</v>
+        <v>532.5675980139529</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841867</v>
+        <v>376.4268100841894</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139554</v>
+        <v>532.5675980139529</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.414529742695135e-14</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841867</v>
+        <v>376.4268100841894</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139556</v>
+        <v>532.5675980139529</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917676</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>340.1987280813171</v>
+        <v>149.1202946442036</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>191.1269353842349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.3858784430487</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,7 +27476,7 @@
         <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>140.453300469558</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>87.61102903727597</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27585,22 +27585,22 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>96.1659789420423</v>
+        <v>22.80911833508463</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695015</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>336.3960070795077</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>297.3641166365625</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545475</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.21613438642697</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,7 +27701,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>119.5559612007565</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27792,10 +27792,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888212</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27831,16 +27831,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>96.52913300212398</v>
+        <v>66.04823662992641</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>75.78987412766043</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>310.0564993496247</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465076</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348409</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646899</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164531481</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164542328</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>47.54863008462314</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430996</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640956</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503846</v>
+        <v>12.37555977878785</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>9.648064949407792e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28810,13 +28810,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28861,13 +28861,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.649450368463837e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>9.649450368463837e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>9.649450368463837e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>9.649450368463837e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,13 +30271,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.649450368463837e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>9.649450368463837e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.206077314911768e-12</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350877</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582785</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885546</v>
+        <v>3.753577726885555</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546661</v>
+        <v>38.4413278954667</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157551</v>
+        <v>144.7098053157555</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972524</v>
+        <v>318.5802175972532</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763177</v>
+        <v>477.4691627763188</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354913</v>
+        <v>592.3427171354928</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359921</v>
+        <v>659.0954050359937</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525057</v>
+        <v>669.7602577525074</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307876</v>
+        <v>632.435619230789</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983005</v>
+        <v>539.7691690983019</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542118</v>
+        <v>405.3441667542128</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864744</v>
+        <v>235.785676886475</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140447</v>
+        <v>85.53465245140468</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944149</v>
+        <v>16.43128649944153</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508436</v>
+        <v>0.3002862181508443</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436924</v>
+        <v>2.008341139436929</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035135</v>
+        <v>19.39634732035139</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026252</v>
+        <v>69.14683309026267</v>
       </c>
       <c r="J9" t="n">
-        <v>189.744195107942</v>
+        <v>189.7441951079425</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502159</v>
+        <v>324.3030514502167</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571268</v>
+        <v>436.0654741571279</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617152</v>
+        <v>508.8678404617164</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152199</v>
+        <v>522.3360580152212</v>
       </c>
       <c r="O9" t="n">
-        <v>477.835446451907</v>
+        <v>477.8354464519082</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947579</v>
+        <v>383.5050724947588</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463694</v>
+        <v>256.36298474637</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204785</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366389</v>
+        <v>37.30405581366398</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133913</v>
+        <v>8.095024154133933</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419029</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752554</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.9698525484</v>
+        <v>14.96985254840003</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415865</v>
+        <v>50.63422518415878</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954056</v>
+        <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772513</v>
+        <v>195.6183185772518</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490116</v>
+        <v>250.3240987490123</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023117</v>
+        <v>263.9316641023124</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462343</v>
+        <v>257.6559590462349</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046248</v>
+        <v>237.9869810046254</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708725</v>
+        <v>203.638975770873</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939798</v>
+        <v>140.9890713939802</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307392</v>
+        <v>75.70643221307411</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658769</v>
+        <v>29.34274778658776</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19410091794273</v>
+        <v>7.194100917942748</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650308</v>
+        <v>0.0918395861865033</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,28 +31835,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32093,7 +32093,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>196.3041720118997</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,28 +33020,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,16 +33500,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,7 +33737,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>101.5721424897446</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34869,7 +34869,7 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>181.0986910958083</v>
       </c>
       <c r="P4" t="n">
         <v>131.2029511204531</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089031</v>
+        <v>172.7600739089027</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649633</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496797</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705661</v>
+        <v>137.5343130705669</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313371</v>
+        <v>257.3793117313382</v>
       </c>
       <c r="L8" t="n">
-        <v>356.576302165504</v>
+        <v>356.5763021655055</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087194</v>
+        <v>428.749171808721</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559148</v>
+        <v>440.3471941559165</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091008</v>
+        <v>402.3374078091023</v>
       </c>
       <c r="P8" t="n">
-        <v>308.536173343031</v>
+        <v>308.5361733430323</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797623</v>
+        <v>183.0384768797633</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234227</v>
+        <v>20.20013907234284</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127531</v>
+        <v>62.90656844127579</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758569</v>
+        <v>186.4616124758577</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772526</v>
+        <v>640.1406900856955</v>
       </c>
       <c r="M9" t="n">
-        <v>621.9919601401272</v>
+        <v>366.7338065396981</v>
       </c>
       <c r="N9" t="n">
-        <v>640.1406900856928</v>
+        <v>552.7692479776855</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074626</v>
+        <v>335.2392020074637</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804276</v>
+        <v>249.5306650804285</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603479</v>
+        <v>116.3812106603485</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783539</v>
+        <v>24.53548676783569</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873281</v>
+        <v>25.68023017873311</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513684</v>
+        <v>173.3488267513689</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093278</v>
+        <v>277.9141240093284</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641523</v>
+        <v>303.515541064153</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254629</v>
+        <v>301.7881314254635</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186645</v>
+        <v>262.572108918665</v>
       </c>
       <c r="P10" t="n">
-        <v>200.917535035766</v>
+        <v>200.9175350357665</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228544</v>
+        <v>54.82702814228578</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,28 +35483,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,7 +35741,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>57.74979223202556</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
